--- a/ytest/templates/demo_suite.xlsx
+++ b/ytest/templates/demo_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14200"/>
+    <workbookView windowWidth="27900" windowHeight="14200" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="variable" sheetId="3" r:id="rId3"/>
     <sheet name="assert" sheetId="4" r:id="rId4"/>
     <sheet name="sql" sheetId="5" r:id="rId5"/>
+    <sheet name="断言使用教程" sheetId="6" r:id="rId6"/>
+    <sheet name="sql列表使用教程" sheetId="7" r:id="rId7"/>
+    <sheet name="变量引用教程" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
   <si>
     <t>project_name</t>
   </si>
@@ -275,21 +278,418 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>{"type":"mysql","database":"starship_test_ops","sql":"delete from client_cached_file where url='$resource_url_01'"}</t>
+  </si>
+  <si>
+    <t>断言使用</t>
+  </si>
+  <si>
+    <t>支持类型</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>response状态码断言</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>{"type":"response_code","text":"200"}</t>
+  </si>
+  <si>
+    <t>body中任意属性的值断言</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>{'type': 'response_body', 'text': 'code=2000;msg=成功'}</t>
+  </si>
+  <si>
+    <t>body中是否包含预期字符串</t>
+  </si>
+  <si>
+    <t>{"type":"response_incloud","text":"msg in 这是一个测试用例模版"}</t>
+  </si>
+  <si>
+    <t>body中不包含预期字符串</t>
+  </si>
+  <si>
+    <t>{"type":"response_incloud","text":"msg not_in 这是一个测试用例模版"}</t>
+  </si>
+  <si>
+    <t>body中字符串长度断言[等于]</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals","text":"res=body.items","len":1 }</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals","text":"res=body.items", "database":"starship_test_ops","sql":"select count(*) from xxxxx where xxxxx"}</t>
+  </si>
+  <si>
+    <t>func函数</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals","text":"res=body.items", "func":"${create_app_code()}"}</t>
+  </si>
+  <si>
+    <t>body中字符串长度断言[大于]</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals_greater","text":"res=body.items","len":1 }</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals_greater","text":"res=body.items", "database":"starship_test_ops","sql":"select count(*) from xxxxx where xxxxx"}</t>
+  </si>
+  <si>
+    <t>{"type":"length_equals_greater","text":"res=body.items", "func":"${create_app_code()}"}</t>
+  </si>
+  <si>
+    <t>数据库断言[MySql]</t>
+  </si>
+  <si>
+    <t>单维度</t>
+  </si>
+  <si>
+    <t>{
+            "type": "mysql",
+            "database": "api_test_starship_branch",
+            "sql": "select id from feature where id= '39ffd37b-6be7-db7d-072b-5bc325074bdb'",
+            "text": "result=[{'id': '39ffd37b-6be7-db7d-072b-5bc325074bdb'}]",
+        }</t>
+  </si>
+  <si>
+    <t>多维度</t>
+  </si>
+  <si>
+    <t>{
+            "type": "mysql",
+            "database": "api_test_starship_branch",
+            "sql": "select id,name from feature where id= '39ffd37b-6be7-db7d-072b-5bc325074bdb'",
+            "text": "result[0].id=39ffd37b-6be7-db7d-072b-5bc325074bdb",
+        }</t>
+  </si>
+  <si>
+    <r>
+      <t>断言可以对个条件使用，使用时用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+  </si>
+  <si>
+    <t>普通类型</t>
+  </si>
+  <si>
+    <t>样本</t>
+  </si>
+  <si>
+    <t>普通SQL</t>
+  </si>
+  <si>
+    <t>{"type":"mysql","database":"DB","sql":"sql语句'"}</t>
+  </si>
+  <si>
+    <t>{"type":"mysql","database":"starship_test_ops","sql":"delete from client_cached_file where url='123'"}</t>
+  </si>
+  <si>
+    <t>含变量SQL</t>
+  </si>
+  <si>
+    <t>{"type":"mysql","database":"starship_test_ops","sql":"delete from client_cached_file where url='${test}'"}</t>
+  </si>
+  <si>
+    <t>普通变量</t>
+  </si>
+  <si>
+    <t>${变量名}</t>
+  </si>
+  <si>
+    <t>${password}</t>
+  </si>
+  <si>
+    <t>函数变量</t>
+  </si>
+  <si>
+    <t>${函数名}</t>
+  </si>
+  <si>
+    <t>混合变量[函数 + 普通]</t>
+  </si>
+  <si>
+    <t>${函数名(变量名)}</t>
+  </si>
+  <si>
+    <t>${generated_uuid(user=$username)</t>
+  </si>
+  <si>
+    <t>其他模块引用</t>
+  </si>
+  <si>
+    <t>前置/后置条件使用</t>
+  </si>
+  <si>
+    <r>
+      <t>{"type":"func","func":"${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变量名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)}","key":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数必须有返回值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则会报错</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"type":"mysql","sql_list":[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"key":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sql_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须为数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否则会报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,key可传可不传</t>
+    </r>
+  </si>
+  <si>
+    <t>{"type":"mysql","sql_list":[1,2]}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,14 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -371,39 +763,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,16 +778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,8 +794,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,9 +809,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,18 +871,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -510,7 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,19 +966,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +996,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +1032,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,61 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,55 +1120,65 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,17 +1198,15 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -810,6 +1286,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -827,8 +1336,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -848,207 +1359,233 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1060,67 +1597,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,112 +2019,112 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.4326923076923" style="24" customWidth="1"/>
-    <col min="2" max="7" width="12.4326923076923" style="24" customWidth="1"/>
-    <col min="8" max="8" width="66.1442307692308" style="24" customWidth="1"/>
+    <col min="1" max="1" width="26.4326923076923" style="50" customWidth="1"/>
+    <col min="2" max="7" width="12.4326923076923" style="50" customWidth="1"/>
+    <col min="8" max="8" width="66.1442307692308" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" ht="21.75" customHeight="1" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:8">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:8">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1605,301 +2151,301 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.14423076923077" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.2884615384615" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.6730769230769" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.4326923076923" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.14423076923077" style="4" customWidth="1"/>
-    <col min="6" max="6" width="79.4326923076923" style="4" customWidth="1"/>
-    <col min="7" max="7" width="60.2884615384615" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5769230769231" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.8269230769231" style="4" customWidth="1"/>
-    <col min="10" max="11" width="76.8653846153846" style="4" customWidth="1"/>
-    <col min="12" max="12" width="77.8653846153846" style="4" customWidth="1"/>
-    <col min="13" max="13" width="103.288461538462" style="4" customWidth="1"/>
-    <col min="14" max="14" width="144.576923076923" style="4" customWidth="1"/>
-    <col min="15" max="15" width="111.432692307692" style="4" customWidth="1"/>
-    <col min="16" max="16" width="93.0096153846154" style="4" customWidth="1"/>
-    <col min="17" max="17" width="124.721153846154" style="4" customWidth="1"/>
-    <col min="18" max="18" width="45.5769230769231" style="4" customWidth="1"/>
-    <col min="19" max="19" width="17.5769230769231" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.14423076923077" style="26" customWidth="1"/>
+    <col min="2" max="2" width="30.2884615384615" style="26" customWidth="1"/>
+    <col min="3" max="3" width="20.6730769230769" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.4326923076923" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.14423076923077" style="26" customWidth="1"/>
+    <col min="6" max="6" width="79.4326923076923" style="26" customWidth="1"/>
+    <col min="7" max="7" width="60.2884615384615" style="26" customWidth="1"/>
+    <col min="8" max="8" width="37.5769230769231" style="26" customWidth="1"/>
+    <col min="9" max="9" width="16.8269230769231" style="26" customWidth="1"/>
+    <col min="10" max="11" width="76.8653846153846" style="26" customWidth="1"/>
+    <col min="12" max="12" width="77.8653846153846" style="26" customWidth="1"/>
+    <col min="13" max="13" width="103.288461538462" style="26" customWidth="1"/>
+    <col min="14" max="14" width="144.576923076923" style="26" customWidth="1"/>
+    <col min="15" max="15" width="111.432692307692" style="26" customWidth="1"/>
+    <col min="16" max="16" width="93.0096153846154" style="26" customWidth="1"/>
+    <col min="17" max="17" width="124.721153846154" style="26" customWidth="1"/>
+    <col min="18" max="18" width="45.5769230769231" style="26" customWidth="1"/>
+    <col min="19" max="19" width="17.5769230769231" style="24" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:19">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:18">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="48"/>
+      <c r="P3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:18">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:18">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:18">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:18">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:18">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1924,83 +2470,87 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.4326923076923" style="7" customWidth="1"/>
-    <col min="2" max="2" width="94.0096153846154" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.1442307692308" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.2884615384615" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="20.4326923076923" style="30" customWidth="1"/>
+    <col min="2" max="2" width="94.0096153846154" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.1442307692308" style="32" customWidth="1"/>
+    <col min="4" max="4" width="17.2884615384615" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="24" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="21.75" customHeight="1" spans="1:4">
+      <c r="A2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" ht="21.75" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" spans="1:4">
+      <c r="A3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="36">
         <v>123456</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" ht="21.75" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" ht="21.75" customHeight="1" spans="1:4">
+      <c r="A4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" ht="21.75" customHeight="1" spans="1:4">
+      <c r="A5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="37" t="s">
         <v>62</v>
       </c>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2018,28 +2568,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="112.019230769231" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="112.019230769231" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="28"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="29"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="29"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="29"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2052,29 +2617,2208 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="142.865384615385" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5769230769231" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="142.865384615385" style="24" customWidth="1"/>
+    <col min="2" max="2" width="55.5769230769231" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="24" customFormat="1" ht="21" customHeight="1" spans="1:2">
+      <c r="A1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="35.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.0288461538462" style="11" customWidth="1"/>
+    <col min="3" max="12" width="9.23076923076923" style="11"/>
+    <col min="13" max="13" width="26.2788461538462" style="11" customWidth="1"/>
+    <col min="14" max="18" width="9.23076923076923" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:18">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" ht="17" spans="1:18">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" ht="17" spans="1:18">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:18">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" ht="17" spans="1:18">
+      <c r="A5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" ht="17" spans="1:18">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" ht="17" spans="1:18">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" ht="17" spans="1:18">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" ht="17" spans="1:18">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" ht="118" customHeight="1" spans="1:18">
+      <c r="A12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" ht="113" customHeight="1" spans="1:18">
+      <c r="A13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" ht="17" spans="1:18">
+      <c r="A14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.4230769230769" customWidth="1"/>
+    <col min="2" max="2" width="44.8653846153846" customWidth="1"/>
+    <col min="3" max="3" width="110.576923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.9038461538462" customWidth="1"/>
+    <col min="2" max="2" width="60.0865384615385" customWidth="1"/>
+    <col min="3" max="3" width="95.9903846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ytest/templates/demo_suite.xlsx
+++ b/ytest/templates/demo_suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14200" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="27900" windowHeight="13520" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>project_name</t>
   </si>
@@ -426,6 +426,22 @@
     <t>{"type":"mysql","database":"starship_test_ops","sql":"delete from client_cached_file where url='${test}'"}</t>
   </si>
   <si>
+    <r>
+      <t>备注:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 目前只支持mysql,sql的ID为excel中存放的顺序，如：第一条为1，第二条为2，以此类推</t>
+    </r>
+  </si>
+  <si>
     <t>普通变量</t>
   </si>
   <si>
@@ -447,7 +463,7 @@
     <t>${函数名(变量名)}</t>
   </si>
   <si>
-    <t>${generated_uuid(user=$username)</t>
+    <t>${generated_uuid(user=${username})}</t>
   </si>
   <si>
     <t>其他模块引用</t>
@@ -672,7 +688,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +698,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1362,152 +1386,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1532,7 +1556,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1561,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1573,16 +1603,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1597,76 +1628,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,106 +2056,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.4326923076923" style="50" customWidth="1"/>
-    <col min="2" max="7" width="12.4326923076923" style="50" customWidth="1"/>
-    <col min="8" max="8" width="66.1442307692308" style="50" customWidth="1"/>
+    <col min="1" max="1" width="26.4326923076923" style="53" customWidth="1"/>
+    <col min="2" max="7" width="12.4326923076923" style="53" customWidth="1"/>
+    <col min="8" max="8" width="66.1442307692308" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" ht="21.75" customHeight="1" spans="1:8">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:8">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:8">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2157,295 +2188,295 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.14423076923077" style="26" customWidth="1"/>
-    <col min="2" max="2" width="30.2884615384615" style="26" customWidth="1"/>
-    <col min="3" max="3" width="20.6730769230769" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.4326923076923" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.14423076923077" style="26" customWidth="1"/>
-    <col min="6" max="6" width="79.4326923076923" style="26" customWidth="1"/>
-    <col min="7" max="7" width="60.2884615384615" style="26" customWidth="1"/>
-    <col min="8" max="8" width="37.5769230769231" style="26" customWidth="1"/>
-    <col min="9" max="9" width="16.8269230769231" style="26" customWidth="1"/>
-    <col min="10" max="11" width="76.8653846153846" style="26" customWidth="1"/>
-    <col min="12" max="12" width="77.8653846153846" style="26" customWidth="1"/>
-    <col min="13" max="13" width="103.288461538462" style="26" customWidth="1"/>
-    <col min="14" max="14" width="144.576923076923" style="26" customWidth="1"/>
-    <col min="15" max="15" width="111.432692307692" style="26" customWidth="1"/>
-    <col min="16" max="16" width="93.0096153846154" style="26" customWidth="1"/>
-    <col min="17" max="17" width="124.721153846154" style="26" customWidth="1"/>
-    <col min="18" max="18" width="45.5769230769231" style="26" customWidth="1"/>
-    <col min="19" max="19" width="17.5769230769231" style="24" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9.14423076923077" style="29" customWidth="1"/>
+    <col min="2" max="2" width="30.2884615384615" style="29" customWidth="1"/>
+    <col min="3" max="3" width="20.6730769230769" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.4326923076923" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.14423076923077" style="29" customWidth="1"/>
+    <col min="6" max="6" width="79.4326923076923" style="29" customWidth="1"/>
+    <col min="7" max="7" width="60.2884615384615" style="29" customWidth="1"/>
+    <col min="8" max="8" width="37.5769230769231" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.8269230769231" style="29" customWidth="1"/>
+    <col min="10" max="11" width="76.8653846153846" style="29" customWidth="1"/>
+    <col min="12" max="12" width="77.8653846153846" style="29" customWidth="1"/>
+    <col min="13" max="13" width="103.288461538462" style="29" customWidth="1"/>
+    <col min="14" max="14" width="144.576923076923" style="29" customWidth="1"/>
+    <col min="15" max="15" width="111.432692307692" style="29" customWidth="1"/>
+    <col min="16" max="16" width="93.0096153846154" style="29" customWidth="1"/>
+    <col min="17" max="17" width="124.721153846154" style="29" customWidth="1"/>
+    <col min="18" max="18" width="45.5769230769231" style="29" customWidth="1"/>
+    <col min="19" max="19" width="17.5769230769231" style="26" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:19">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:18">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="42"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:18">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:18">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:18">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:18">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:18">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:18">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2475,82 +2506,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.4326923076923" style="30" customWidth="1"/>
-    <col min="2" max="2" width="94.0096153846154" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.1442307692308" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17.2884615384615" style="30" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="20.4326923076923" style="33" customWidth="1"/>
+    <col min="2" max="2" width="94.0096153846154" style="34" customWidth="1"/>
+    <col min="3" max="3" width="16.1442307692308" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.2884615384615" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="26" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="39">
         <v>123456</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" ht="21.75" customHeight="1" spans="2:3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="2:3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2576,35 +2607,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="112.019230769231" style="26" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="112.019230769231" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="28"/>
+      <c r="A2" s="31"/>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="29"/>
+      <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="29"/>
+      <c r="A7" s="32"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,21 +2656,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="142.865384615385" style="24" customWidth="1"/>
-    <col min="2" max="2" width="55.5769230769231" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="142.865384615385" style="26" customWidth="1"/>
+    <col min="2" max="2" width="55.5769230769231" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="26" customFormat="1" ht="21" customHeight="1" spans="1:2">
+      <c r="A1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2655,1949 +2686,1949 @@
   <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:M13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="35.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.0288461538462" style="11" customWidth="1"/>
-    <col min="3" max="12" width="9.23076923076923" style="11"/>
-    <col min="13" max="13" width="26.2788461538462" style="11" customWidth="1"/>
-    <col min="14" max="18" width="9.23076923076923" style="11"/>
+    <col min="1" max="1" width="35.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.0288461538462" style="13" customWidth="1"/>
+    <col min="3" max="12" width="9.23076923076923" style="13"/>
+    <col min="13" max="13" width="26.2788461538462" style="13" customWidth="1"/>
+    <col min="14" max="18" width="9.23076923076923" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" ht="17" spans="1:18">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" ht="17" spans="1:18">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:18">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" ht="17" spans="1:18">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" ht="17" spans="1:18">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
     </row>
     <row r="8" ht="17" spans="1:18">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" ht="17" spans="1:18">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" ht="17" spans="1:18">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" ht="118" customHeight="1" spans="1:18">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" ht="113" customHeight="1" spans="1:18">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" ht="17" spans="1:18">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4627,13 +4658,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.4230769230769" customWidth="1"/>
     <col min="2" max="2" width="44.8653846153846" customWidth="1"/>
@@ -4652,10 +4683,10 @@
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -4663,17 +4694,27 @@
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="5" ht="17" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4684,8 +4725,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -4708,21 +4749,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>61</v>
@@ -4730,28 +4771,28 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>52</v>
@@ -4780,10 +4821,10 @@
     <row r="11" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
